--- a/FG-47856.xlsx
+++ b/FG-47856.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>ServerType</t>
   </si>
@@ -91,6 +91,9 @@
     <t>xx-sd2a:d</t>
   </si>
   <si>
+    <t>us-east-1</t>
+  </si>
+  <si>
     <t>Postgres</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>xx-sd4b</t>
   </si>
   <si>
+    <t>us-west-1</t>
+  </si>
+  <si>
     <t>ami-1111111</t>
   </si>
   <si>
@@ -161,6 +167,9 @@
   </si>
   <si>
     <t>xx-sd6b</t>
+  </si>
+  <si>
+    <t>us-central-2</t>
   </si>
   <si>
     <t>ami-2222222</t>
@@ -589,43 +598,45 @@
       <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4">
         <v>11.1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4">
         <v>1200.0</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T2" s="8">
         <v>700.0</v>
@@ -634,67 +645,69 @@
         <v>2100.0</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3" s="4">
         <v>2016.0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3" s="4">
         <v>150.0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P3" s="4">
         <v>200.0</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T3" s="8">
         <v>700.0</v>
@@ -703,67 +716,69 @@
         <v>1700.0</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G4" s="4">
         <v>2016.0</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I4" s="4">
         <v>150.0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P4" s="4">
         <v>150.0</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T4" s="8">
         <v>700.0</v>
@@ -772,10 +787,10 @@
         <v>1700.0</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/FG-47856.xlsx
+++ b/FG-47856.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>ServerType</t>
   </si>
@@ -37,6 +37,12 @@
     <t>InstanceType</t>
   </si>
   <si>
+    <t>StorageType</t>
+  </si>
+  <si>
+    <t>Backups</t>
+  </si>
+  <si>
     <t>RootVolSize</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>SecurityGroup</t>
   </si>
   <si>
+    <t>WorkloadType</t>
+  </si>
+  <si>
     <t>Data Server</t>
   </si>
   <si>
@@ -100,16 +109,19 @@
     <t>db.r5.2xlarge</t>
   </si>
   <si>
+    <t>gp2</t>
+  </si>
+  <si>
     <t>UC2S</t>
   </si>
   <si>
-    <t>subnet-0000000</t>
+    <t>subnet-8631efa9</t>
   </si>
   <si>
     <t>TP1</t>
   </si>
   <si>
-    <t>sotc-db</t>
+    <t>sotcdb</t>
   </si>
   <si>
     <t>SOTD</t>
@@ -124,7 +136,10 @@
     <t>Always</t>
   </si>
   <si>
-    <t>sg-0000000</t>
+    <t>sg-041e9171</t>
+  </si>
+  <si>
+    <t>aaaa</t>
   </si>
   <si>
     <t>Publishing Server</t>
@@ -136,10 +151,7 @@
     <t>xx-sd4b</t>
   </si>
   <si>
-    <t>us-west-1</t>
-  </si>
-  <si>
-    <t>ami-1111111</t>
+    <t>ami-0ba6d33ccf9c1d893</t>
   </si>
   <si>
     <t>Windows</t>
@@ -148,10 +160,7 @@
     <t>m5.large</t>
   </si>
   <si>
-    <t>subnet-1111111</t>
-  </si>
-  <si>
-    <t>uc-tp1-sotd-pub-01</t>
+    <t>uctp1sotdpub01</t>
   </si>
   <si>
     <t>sotc-pub</t>
@@ -160,7 +169,7 @@
     <t>MonTueWedThuFri</t>
   </si>
   <si>
-    <t>sg-1111111</t>
+    <t>bbbb</t>
   </si>
   <si>
     <t>ArcGIS Server</t>
@@ -169,16 +178,10 @@
     <t>xx-sd6b</t>
   </si>
   <si>
-    <t>us-central-2</t>
-  </si>
-  <si>
-    <t>ami-2222222</t>
-  </si>
-  <si>
-    <t>subnet-2222222</t>
-  </si>
-  <si>
-    <t>uc-tp1-sotd-ags-01</t>
+    <t>subnet-3e2af963</t>
+  </si>
+  <si>
+    <t>uctp1sotdags01</t>
   </si>
   <si>
     <t>sotc-ags</t>
@@ -187,14 +190,14 @@
     <t>SatSun</t>
   </si>
   <si>
-    <t>sg-2222222</t>
+    <t>cccc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -212,12 +215,28 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF16191F"/>
+      <name val="&quot;Amazon Ember&quot;"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF1D8102"/>
+      <name val="&quot;Amazon Ember&quot;"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF444444"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
     </font>
   </fonts>
   <fills count="5">
@@ -266,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -276,6 +295,9 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -285,16 +307,28 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -515,6 +549,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="127.71"/>
     <col customWidth="1" min="6" max="7" width="19.0"/>
+    <col customWidth="1" min="24" max="24" width="17.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -548,10 +583,10 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -587,210 +622,246 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4">
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5">
         <v>11.1</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="H2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="K2" s="5">
         <v>1200.0</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="8">
+      <c r="O2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="10">
         <v>700.0</v>
       </c>
-      <c r="U2" s="8">
+      <c r="W2" s="10">
         <v>2100.0</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>37</v>
+      <c r="X2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>300.0</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="5">
+        <v>300.0</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="U3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="V3" s="10">
+        <v>700.0</v>
+      </c>
+      <c r="W3" s="10">
+        <v>1700.0</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2016.0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="4">
-        <v>150.0</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="8">
-        <v>700.0</v>
-      </c>
-      <c r="U3" s="8">
-        <v>1700.0</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>49</v>
+      <c r="Z3" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>150.0</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="5">
+        <v>150.0</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2016.0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="4">
-        <v>150.0</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="4">
-        <v>150.0</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="8">
+      <c r="V4" s="10">
         <v>700.0</v>
       </c>
-      <c r="U4" s="8">
+      <c r="W4" s="10">
         <v>1700.0</v>
       </c>
-      <c r="V4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="W4" s="8" t="s">
+      <c r="X4" s="10" t="s">
         <v>58</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
